--- a/External Metrics/External Metrics Values for All Version.xlsx
+++ b/External Metrics/External Metrics Values for All Version.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KASATLA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhbhalodi\Documents\SOEN_6611_Project\External Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63F134D-8840-4D88-A115-AB0F2FD66104}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>Number of changes</t>
   </si>
@@ -63,75 +62,27 @@
     <t>V 2.9.0</t>
   </si>
   <si>
-    <t>V 3.0.0</t>
-  </si>
-  <si>
     <t>SonarQube</t>
   </si>
   <si>
-    <t xml:space="preserve">Extracted from : </t>
-  </si>
-  <si>
-    <t>Sourcemeter/SonarQube</t>
-  </si>
-  <si>
     <t>Github</t>
   </si>
   <si>
-    <t>Reliability Bugs</t>
-  </si>
-  <si>
-    <t>Reliability Rating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reliability : - </t>
-  </si>
-  <si>
-    <t>Code Smells</t>
-  </si>
-  <si>
-    <t>Debt Ratio</t>
-  </si>
-  <si>
-    <t>Rating</t>
-  </si>
-  <si>
     <t>Number of clones (Duplications)</t>
   </si>
   <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Duplicated Lines</t>
-  </si>
-  <si>
-    <t>Dulicated Blocks</t>
-  </si>
-  <si>
-    <t>Duplicated Files</t>
-  </si>
-  <si>
     <t>378d</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>Effort to Reach A</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
     <t>27d</t>
   </si>
   <si>
-    <t>Remediation Effort(in man days)</t>
-  </si>
-  <si>
-    <t>Debt (in man days)</t>
-  </si>
-  <si>
     <t>29d</t>
   </si>
   <si>
@@ -178,12 +129,54 @@
   </si>
   <si>
     <t>356d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Dulicated Blocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Duplicated Lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Duplicated Files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Reliability Bugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Reliability Rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Remediation Effort(in man days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Code Smells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Debt (in man days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Debt Ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Effort to Reach A</t>
+  </si>
+  <si>
+    <t>Reliability</t>
+  </si>
+  <si>
+    <t>Extracted from</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -208,7 +201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,8 +214,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -245,17 +244,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -267,14 +255,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -591,30 +579,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -643,113 +631,153 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6813</v>
+      </c>
+      <c r="D2" s="5">
+        <v>7276</v>
+      </c>
+      <c r="E2" s="5">
+        <v>7877</v>
+      </c>
+      <c r="F2" s="5">
+        <v>8521</v>
+      </c>
+      <c r="G2" s="5">
+        <v>8580</v>
+      </c>
+      <c r="H2" s="5">
+        <v>8980</v>
+      </c>
+      <c r="I2" s="5">
+        <v>9011</v>
+      </c>
+      <c r="J2" s="5">
+        <v>10387</v>
+      </c>
+      <c r="K2" s="5">
+        <v>10459</v>
+      </c>
+      <c r="L2" s="5">
+        <v>12243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5">
+        <v>32</v>
+      </c>
+      <c r="F3" s="5">
+        <v>25</v>
+      </c>
+      <c r="G3" s="5">
+        <v>41</v>
+      </c>
+      <c r="H3" s="5">
+        <v>34</v>
+      </c>
+      <c r="I3" s="5">
+        <v>39</v>
+      </c>
+      <c r="J3" s="5">
+        <v>44</v>
+      </c>
+      <c r="K3" s="5">
+        <v>49</v>
+      </c>
+      <c r="L3" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>6813</v>
-      </c>
-      <c r="D2">
-        <v>7276</v>
-      </c>
-      <c r="E2">
-        <v>7877</v>
-      </c>
-      <c r="F2">
-        <v>8521</v>
-      </c>
-      <c r="G2">
-        <v>8580</v>
-      </c>
-      <c r="H2">
-        <v>8980</v>
-      </c>
-      <c r="I2">
-        <v>9011</v>
-      </c>
-      <c r="J2">
-        <v>10387</v>
-      </c>
-      <c r="K2">
-        <v>10459</v>
-      </c>
-      <c r="L2">
-        <v>12243</v>
-      </c>
-      <c r="M2">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="7">
-        <v>28</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3">
-        <v>32</v>
-      </c>
-      <c r="F3">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>41</v>
-      </c>
-      <c r="H3">
-        <v>34</v>
-      </c>
-      <c r="I3">
-        <v>39</v>
-      </c>
-      <c r="J3">
-        <v>44</v>
-      </c>
-      <c r="K3">
-        <v>49</v>
-      </c>
-      <c r="L3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>2.7E-2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>2.7E-2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="F5" s="8">
@@ -773,341 +801,343 @@
       <c r="L5" s="8">
         <v>2.7E-2</v>
       </c>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5">
+        <v>17206</v>
+      </c>
+      <c r="D6" s="5">
+        <v>18219</v>
+      </c>
+      <c r="E6" s="5">
+        <v>20504</v>
+      </c>
+      <c r="F6" s="6">
+        <v>22442</v>
+      </c>
+      <c r="G6" s="6">
+        <v>22325</v>
+      </c>
+      <c r="H6" s="6">
+        <v>22514</v>
+      </c>
+      <c r="I6" s="6">
+        <v>22639</v>
+      </c>
+      <c r="J6" s="6">
+        <v>24388</v>
+      </c>
+      <c r="K6" s="6">
+        <v>25289</v>
+      </c>
+      <c r="L6" s="6">
+        <v>33228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6">
+        <v>1165</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1512</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1985</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2241</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2233</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2249</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2249</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2537</v>
+      </c>
+      <c r="K7" s="6">
+        <v>2581</v>
+      </c>
+      <c r="L7" s="6">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6">
+        <v>351</v>
+      </c>
+      <c r="D8" s="5">
+        <v>393</v>
+      </c>
+      <c r="E8" s="5">
+        <v>416</v>
+      </c>
+      <c r="F8" s="6">
+        <v>469</v>
+      </c>
+      <c r="G8" s="6">
+        <v>464</v>
+      </c>
+      <c r="H8" s="6">
+        <v>481</v>
+      </c>
+      <c r="I8" s="6">
+        <v>481</v>
+      </c>
+      <c r="J8" s="6">
+        <v>523</v>
+      </c>
+      <c r="K8" s="6">
+        <v>525</v>
+      </c>
+      <c r="L8" s="6">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5">
+        <v>1124</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1187</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1262</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1340</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1342</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1380</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1359</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1327</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1328</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5">
+        <v>15294</v>
+      </c>
+      <c r="D14" s="5">
+        <v>16062</v>
+      </c>
+      <c r="E14" s="6">
+        <v>17184</v>
+      </c>
+      <c r="F14" s="6">
+        <v>18729</v>
+      </c>
+      <c r="G14" s="6">
+        <v>18862</v>
+      </c>
+      <c r="H14" s="6">
+        <v>19304</v>
+      </c>
+      <c r="I14" s="6">
+        <v>19414</v>
+      </c>
+      <c r="J14" s="6">
+        <v>21232</v>
+      </c>
+      <c r="K14" s="6">
+        <v>21367</v>
+      </c>
+      <c r="L14" s="6">
+        <v>25191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6">
-        <v>17206</v>
-      </c>
-      <c r="D6">
-        <v>18219</v>
-      </c>
-      <c r="E6">
-        <v>20504</v>
-      </c>
-      <c r="F6" s="7">
-        <v>22442</v>
-      </c>
-      <c r="G6" s="7">
-        <v>22325</v>
-      </c>
-      <c r="H6" s="7">
-        <v>22514</v>
-      </c>
-      <c r="I6" s="7">
-        <v>22639</v>
-      </c>
-      <c r="J6" s="7">
-        <v>24388</v>
-      </c>
-      <c r="K6" s="7">
-        <v>25289</v>
-      </c>
-      <c r="L6" s="7">
-        <v>33228</v>
-      </c>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="7">
-        <v>1165</v>
-      </c>
-      <c r="D7">
-        <v>1512</v>
-      </c>
-      <c r="E7">
-        <v>1985</v>
-      </c>
-      <c r="F7" s="7">
-        <v>2241</v>
-      </c>
-      <c r="G7" s="7">
-        <v>2233</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2249</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2249</v>
-      </c>
-      <c r="J7" s="7">
-        <v>2537</v>
-      </c>
-      <c r="K7" s="7">
-        <v>2581</v>
-      </c>
-      <c r="L7" s="7">
-        <v>3228</v>
-      </c>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="I15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="7">
-        <v>351</v>
-      </c>
-      <c r="D8">
-        <v>393</v>
-      </c>
-      <c r="E8">
-        <v>416</v>
-      </c>
-      <c r="F8" s="7">
-        <v>469</v>
-      </c>
-      <c r="G8" s="7">
-        <v>464</v>
-      </c>
-      <c r="H8" s="7">
-        <v>481</v>
-      </c>
-      <c r="I8" s="7">
-        <v>481</v>
-      </c>
-      <c r="J8" s="7">
-        <v>523</v>
-      </c>
-      <c r="K8" s="7">
-        <v>525</v>
-      </c>
-      <c r="L8" s="7">
-        <v>659</v>
-      </c>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>1124</v>
-      </c>
-      <c r="D10">
-        <v>1187</v>
-      </c>
-      <c r="E10">
-        <v>1262</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1340</v>
-      </c>
-      <c r="G10" s="7">
-        <v>1342</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1380</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1359</v>
-      </c>
-      <c r="J10" s="7">
-        <v>1327</v>
-      </c>
-      <c r="K10" s="7">
-        <v>1328</v>
-      </c>
-      <c r="L10" s="7">
-        <v>1428</v>
-      </c>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="J15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>15294</v>
-      </c>
-      <c r="D14">
-        <v>16062</v>
-      </c>
-      <c r="E14" s="7">
-        <v>17184</v>
-      </c>
-      <c r="F14" s="7">
-        <v>18729</v>
-      </c>
-      <c r="G14" s="7">
-        <v>18862</v>
-      </c>
-      <c r="H14" s="7">
-        <v>19304</v>
-      </c>
-      <c r="I14" s="7">
-        <v>19414</v>
-      </c>
-      <c r="J14" s="7">
-        <v>21232</v>
-      </c>
-      <c r="K14" s="7">
-        <v>21367</v>
-      </c>
-      <c r="L14" s="7">
-        <v>25191</v>
-      </c>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="6">
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7">
         <v>1.4E-2</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="7">
         <v>1.4E-2</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="7">
         <v>1.4E-2</v>
       </c>
       <c r="F16" s="8">
@@ -1131,79 +1161,78 @@
       <c r="L16" s="8">
         <v>1.4E-2</v>
       </c>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>0</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>0</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>0</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>0</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>0</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>0</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>0</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <v>0</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <v>0</v>
       </c>
-      <c r="M18" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
